--- a/Document/시스템 기획서/DC_회피_강일구.xlsx
+++ b/Document/시스템 기획서/DC_회피_강일구.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>DC_회피</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -476,6 +476,39 @@
   </si>
   <si>
     <t xml:space="preserve">1. UI 이미지 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 쿨타임을 표기함 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 할 수 있는 횟수를 나타냄 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 아이콘 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 카운트가
+돌아가는 형태로 올라감</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카운트 MAX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카운트 1개 소비 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카운트 2개 소비</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카운트 전체 소비 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,65 +738,68 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -821,6 +857,50 @@
         <a:xfrm>
           <a:off x="2143125" y="10439400"/>
           <a:ext cx="3188484" cy="3090940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>201744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="15306675"/>
+          <a:ext cx="10058400" cy="411294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1330,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" activeCellId="1" sqref="D67:H67 O23"/>
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1341,7 +1421,9 @@
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="10.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="7"/>
+    <col min="4" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="21.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1360,101 +1442,101 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
@@ -1465,24 +1547,24 @@
       <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -1497,10 +1579,10 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -1515,10 +1597,10 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -1533,10 +1615,10 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="22"/>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -1551,10 +1633,10 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="21" t="s">
@@ -1569,212 +1651,212 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="27"/>
+      <c r="J31" s="17"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="21"/>
@@ -1926,81 +2008,93 @@
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
       <c r="I65" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="22">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="15">
         <v>1</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="20"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="22">
+      <c r="D66" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B67" s="15">
         <v>2</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="20"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="7" t="s">
+      <c r="D67" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B69" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="7" t="s">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B70" s="7" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B75" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="D15:I15"/>
@@ -2009,10 +2103,28 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2066,16 +2178,16 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
@@ -2234,44 +2346,44 @@
       <c r="C21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="22">
+      <c r="B22" s="15">
         <v>1</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="22">
+      <c r="B23" s="15">
         <v>2</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Document/시스템 기획서/DC_회피_강일구.xlsx
+++ b/Document/시스템 기획서/DC_회피_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="작성 개요" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="157">
   <si>
     <t>DC_회피</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -126,14 +126,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 2.4 UI 출력 순서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.5 그래픽 표기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.6 예외처리</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -443,19 +435,101 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">이미지 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 아이콘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 카운트 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 할 수 있는 횟수를 나타냄 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카운트 MAX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카운트 1개 소비 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카운트 2개 소비</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카운트 전체 소비 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 카운트1 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 카운트2</t>
+  </si>
+  <si>
+    <t>회피 카운트3</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - 회피 카운트는 색을 통해서 출력한다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">이미지 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
+    <t xml:space="preserve"> - UI를 분리하여 소비 되는 것을 구분 한다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 차오르는 형태를 이용하여 쿨타임을 제작한다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 회피 시스템 개요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 클리어 후 이동 시 회피 횟수가 MAX 값으로 충전된다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1 UI 이미지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3 이펙트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니메이션은 따로 제작 하지 않음 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5 테이블</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -463,52 +537,163 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>데이터 형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>비고</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>회피 아이콘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">회피 카운트 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. UI 이미지 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">회피 쿨타임을 표기함 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">회피 할 수 있는 횟수를 나타냄 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">회피 아이콘 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 카운트가
-돌아가는 형태로 올라감</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>카운트 MAX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">카운트 1개 소비 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>카운트 2개 소비</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">카운트 전체 소비 </t>
+    <t>데이터 명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회피 중 오브젝트가 있을 경우 오브젝트를 통과하지 않는다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터는 통과한다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - MissTIme 동안은 공격을 받지 않는다 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션을 클리어하고 다음미션으로 넘어갈 경우 회피 카운트를 MAX 로 변경한다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회피 카운트 쿨타임이 증가 도중에 회피를 사용 할 경우 회피 카운트 쿨타임을 초기화 한다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회피 입력 시 모델링을 OFF 시킴 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모델링 OFF와 함께 콜라이더를 OFF 시켜 회피 시간(MissTime) 동안 공격 받지 않도록 함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어 위치에 이펙트(PC_Effect_Miss_001)를 출력함 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 캐릭터의 위치를 변경 시킴 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 변경 위치에 이펙트 (PC_Effect_Miss_002)를 출력함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 캐릭터 모델링과 콜라이더를 ON 시킴 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회피 카운트를 1 감소 시킴 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회피 카운트가 0일 경우 재사용 대기 시간을 출력함 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회피 카운트가 감소되어 있을 경우 회피 카운트 쿨타임을 작동시킴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회피 카운트 쿨타임 작동 이후 회피 카운트 1 증가 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회피 쿨타임 작동 이후 회피 카운트 MAX 값으로 변경 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5 예외처리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5 예외처리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMissCount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountCoolTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissCoolTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MissTime </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 이동 거리 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 회피 가능 카운트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정수형 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실수형 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실수형 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실수형 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실수형 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 카운트 충전 시간 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 재사용 시간 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 시 피해를 입지 않는 시간 (콜라이더 OFF 시간)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회피를 입력 받으면 MissRange 값 만큼 거리를 이동 시킨다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - MaxMissCount 값을 통해서 최대 회피 카운트 개수를 결정한다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - CountCoolTime 값을 통해 회피 카운트의 충전 시간을 결정한다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +701,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +812,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -641,7 +842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -701,6 +902,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -710,7 +991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,12 +1052,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,20 +1094,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -824,15 +1165,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>216684</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>109615</xdr:rowOff>
+      <xdr:colOff>336320</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>159921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -855,8 +1196,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2143125" y="10439400"/>
-          <a:ext cx="3188484" cy="3090940"/>
+          <a:off x="2409825" y="10744200"/>
+          <a:ext cx="3212870" cy="3255546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -867,20 +1208,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>201744</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>572775</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="그림 15"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -899,8 +1240,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="15306675"/>
-          <a:ext cx="10058400" cy="411294"/>
+          <a:off x="371475" y="16783050"/>
+          <a:ext cx="1715775" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>107638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="16671613"/>
+          <a:ext cx="1924050" cy="1997388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1602471</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>30976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="16611601"/>
+          <a:ext cx="2002521" cy="2078850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>226200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>16651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171321</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8512950" y="16580626"/>
+          <a:ext cx="2002521" cy="2078850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -916,26 +1389,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>510929</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60962</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="7" name="그림 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -948,8 +1421,184 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2419350" y="904875"/>
-          <a:ext cx="2463554" cy="2476500"/>
+          <a:off x="683559" y="1266265"/>
+          <a:ext cx="16203706" cy="1909932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>107174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>198837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="7088999"/>
+          <a:ext cx="1905000" cy="1977613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>43362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="7025187"/>
+          <a:ext cx="1924050" cy="1997388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>202425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>307071</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>185775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="6974700"/>
+          <a:ext cx="2002521" cy="2078850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>292875</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>237996</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>192900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8522475" y="6981825"/>
+          <a:ext cx="2002521" cy="2078850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1226,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1370,12 +2019,7 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
@@ -1383,22 +2027,22 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1410,17 +2054,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView showGridLines="0" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="10.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="9" style="7"/>
     <col min="9" max="9" width="21.375" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="7"/>
@@ -1428,234 +2072,234 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="12" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="26" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="15"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="15"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="15"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="15"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -1668,7 +2312,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -1681,7 +2325,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -1694,7 +2338,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -1707,7 +2351,7 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -1720,14 +2364,14 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J31" s="17"/>
     </row>
@@ -1743,7 +2387,7 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -1756,7 +2400,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -1769,7 +2413,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -1782,7 +2426,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -1795,7 +2439,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -1808,293 +2452,518 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
-        <v>87</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="29" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="20" t="s">
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="4" t="s">
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="4" t="s">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="15">
+        <v>1</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" s="31" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="15">
-        <v>1</v>
-      </c>
-      <c r="C66" s="14" t="s">
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="19"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="20">
+        <v>2</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="19"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="20">
+        <v>3</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="19"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B92" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D66" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="14" t="s">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="B67" s="15">
-        <v>2</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B75" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8" t="s">
-        <v>109</v>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B97" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B99" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K99" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B100" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="30"/>
+      <c r="D100" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="K100" s="22"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B101" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" s="30"/>
+      <c r="D101" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K101" s="22"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B102" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="30"/>
+      <c r="D102" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K102" s="22"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103" s="30"/>
+      <c r="D103" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="K103" s="22"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B104" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" s="30"/>
+      <c r="D104" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="K104" s="22"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B106" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B107" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B108" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B109" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="38">
+    <mergeCell ref="D104:I104"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D99:I99"/>
+    <mergeCell ref="D100:I100"/>
+    <mergeCell ref="D101:I101"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="D15:I15"/>
@@ -2103,23 +2972,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2130,10 +2982,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:F41"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2141,220 +2993,633 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K36" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="45"/>
+      <c r="M37" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="49"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K38" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="45"/>
+      <c r="M38" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="49"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K39" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="45"/>
+      <c r="M39" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="49"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+    </row>
+    <row r="57" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+    </row>
+    <row r="60" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+    </row>
+    <row r="61" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+    </row>
+    <row r="62" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+    </row>
+    <row r="63" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B63" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="N63" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O63" s="7"/>
+    </row>
+    <row r="64" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:R39"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:R36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:R38"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="B5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -2362,13 +3627,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+        <v>96</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -2376,17 +3641,244 @@
         <v>2</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+        <v>97</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="15"/>
     </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="31">
+        <v>1</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="31">
+        <v>2</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
+    </row>
+    <row r="36" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+    </row>
+    <row r="37" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+    </row>
+    <row r="38" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+    </row>
+    <row r="39" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
+    </row>
+    <row r="40" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
+    </row>
+    <row r="41" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="39"/>
+    </row>
+    <row r="42" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="39"/>
+    </row>
+    <row r="43" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="39"/>
+    </row>
+    <row r="44" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="39"/>
+    </row>
+    <row r="45" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="39"/>
+    </row>
+    <row r="46" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="39"/>
+    </row>
+    <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+    </row>
+    <row r="48" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="40"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="42"/>
+    </row>
+    <row r="49" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="22"/>
+    </row>
+    <row r="51" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B35:E48"/>
+    <mergeCell ref="F35:I48"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I20"/>
     <mergeCell ref="D21:H21"/>
@@ -2395,6 +3887,5 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/시스템 기획서/DC_회피_강일구.xlsx
+++ b/Document/시스템 기획서/DC_회피_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="작성 개요" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="162">
   <si>
     <t>DC_회피</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -134,10 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 4.1 UI 이미지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.2 애니메이션</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -455,14 +451,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>회피 아이콘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">회피 카운트 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">회피 할 수 있는 횟수를 나타냄 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -525,10 +513,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 애니메이션은 따로 제작 하지 않음 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5 테이블</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -694,6 +678,42 @@
   </si>
   <si>
     <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 카운트 쿨타임 작동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 카운트 쿨타임 작동 중 회피 재입력시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회피 카운트 쿨타임 작동 중 회피 입력이 다시 들어올 경우 회피 카운트 쿨타임을 초기화 시킴 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2 애니</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니를 따로 추가하지 않음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일구</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 양식 변경 및 회피 카운트 전체 소비 후 내용 추가</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -991,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,6 +1084,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,6 +1126,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1120,27 +1167,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1166,13 +1192,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>336320</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>159921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1210,13 +1236,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>572775</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1254,13 +1280,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>107638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1298,13 +1324,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1602471</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>30976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1342,13 +1368,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>226200</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>16651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>171321</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1435,13 +1461,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>107174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>198837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1465,7 +1491,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552450" y="7088999"/>
+          <a:off x="552450" y="9146399"/>
           <a:ext cx="1905000" cy="1977613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1479,13 +1505,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>43362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1523,13 +1549,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>202425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>307071</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>185775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1567,13 +1593,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>292875</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>237996</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>192900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1599,6 +1625,187 @@
         <a:xfrm>
           <a:off x="8522475" y="6981825"/>
           <a:ext cx="2002521" cy="2078850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>196801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638174" y="12068176"/>
+          <a:ext cx="1914525" cy="1987500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>192900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>183246</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>176250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="11956275"/>
+          <a:ext cx="2002521" cy="2078850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>51796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="3752850"/>
+          <a:ext cx="10058400" cy="1871071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>631664</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="1295400"/>
+          <a:ext cx="2641439" cy="2676525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1875,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1918,9 +2125,15 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -2019,7 +2232,7 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
@@ -2032,17 +2245,17 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2054,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2072,234 +2285,234 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="12" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
       <c r="K19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
       <c r="K20" s="15"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+        <v>55</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="15"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+        <v>56</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
       <c r="K22" s="15"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="C23" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
       <c r="K24" s="15"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -2312,7 +2525,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -2325,7 +2538,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -2338,7 +2551,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -2351,7 +2564,7 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -2364,14 +2577,14 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J31" s="17"/>
     </row>
@@ -2387,7 +2600,7 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -2400,7 +2613,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -2413,7 +2626,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -2426,7 +2639,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -2439,7 +2652,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -2452,37 +2665,37 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
@@ -2490,468 +2703,476 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="D71" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="4" t="s">
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="15">
+        <v>1</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="15">
-        <v>1</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="19"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="20">
-        <v>2</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="33"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="37"/>
       <c r="I72" s="19"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="20">
+        <v>2</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="19"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="20">
         <v>3</v>
       </c>
-      <c r="C73" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="19"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="C74" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="19"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="8" t="s">
+      <c r="B78" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B93" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="9" t="s">
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B100" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="K99" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B100" s="30" t="s">
+      <c r="C100" s="33"/>
+      <c r="D100" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K100" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B101" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" s="34"/>
+      <c r="D101" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="K101" s="22"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B102" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102" s="34"/>
+      <c r="D102" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K102" s="22"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="34"/>
+      <c r="D103" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="K103" s="22"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B104" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" s="34"/>
+      <c r="D104" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="K104" s="22"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B105" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C100" s="30"/>
-      <c r="D100" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="K100" s="22"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B101" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" s="30"/>
-      <c r="D101" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="33"/>
-      <c r="J101" s="22" t="s">
+      <c r="C105" s="34"/>
+      <c r="D105" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="K101" s="22"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C102" s="30"/>
-      <c r="D102" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="K102" s="22"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B103" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K103" s="22"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C104" s="30"/>
-      <c r="D104" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="33"/>
-      <c r="J104" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K104" s="22"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="K105" s="22"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B110" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D105:I105"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D99:I99"/>
+    <mergeCell ref="B105:C105"/>
     <mergeCell ref="D100:I100"/>
     <mergeCell ref="D101:I101"/>
     <mergeCell ref="D102:I102"/>
     <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D104:I104"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I70"/>
+    <mergeCell ref="D71:H71"/>
     <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E21:J21"/>
@@ -2982,10 +3203,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2995,12 +3216,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3020,133 +3241,122 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K36" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="44" t="s">
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K37" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="L37" s="45"/>
-      <c r="M37" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="49"/>
+        <v>122</v>
+      </c>
+      <c r="K37" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="38"/>
+      <c r="M37" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="27"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K38" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="L38" s="45"/>
-      <c r="M38" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="49"/>
+        <v>123</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="38"/>
+      <c r="M38" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="27"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K39" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="K39" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39" s="38"/>
+      <c r="M39" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="L39" s="45"/>
-      <c r="M39" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="49"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="27"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
     </row>
     <row r="52" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
@@ -3325,71 +3535,276 @@
       <c r="O62" s="7"/>
     </row>
     <row r="63" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+    </row>
+    <row r="64" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B64" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="N64" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="N63" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O63" s="7"/>
-    </row>
-    <row r="64" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
       <c r="O64" s="7"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
+    <row r="65" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+    </row>
+    <row r="66" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+    </row>
+    <row r="67" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+    </row>
+    <row r="68" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+    </row>
+    <row r="69" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+    </row>
+    <row r="70" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+    </row>
+    <row r="71" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+    </row>
+    <row r="72" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+    </row>
+    <row r="75" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+    </row>
+    <row r="76" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
-        <v>124</v>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3412,10 +3827,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3429,7 +3844,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
@@ -3443,449 +3858,514 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
+      <c r="C24" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D24" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="4" t="s">
+    </row>
+    <row r="25" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="15">
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="25">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="25">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="35">
         <v>1</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="15">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="35">
         <v>2</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+    </row>
+    <row r="38" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="48"/>
+    </row>
+    <row r="40" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="48"/>
+    </row>
+    <row r="41" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="46"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="48"/>
+    </row>
+    <row r="42" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="48"/>
+    </row>
+    <row r="43" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
+    </row>
+    <row r="44" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="46"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="48"/>
+    </row>
+    <row r="45" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="46"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="48"/>
+    </row>
+    <row r="46" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="48"/>
+    </row>
+    <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="46"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="48"/>
+    </row>
+    <row r="48" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="48"/>
+    </row>
+    <row r="49" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="48"/>
+    </row>
+    <row r="50" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="48"/>
+    </row>
+    <row r="51" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="49"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="51"/>
+    </row>
+    <row r="52" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B52" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-    </row>
-    <row r="34" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="31">
+      <c r="C52" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B53" s="22">
         <v>1</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="31">
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="22"/>
+    </row>
+    <row r="54" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B54" s="22">
         <v>2</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
-    </row>
-    <row r="36" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39"/>
-    </row>
-    <row r="37" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39"/>
-    </row>
-    <row r="38" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-    </row>
-    <row r="39" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
-    </row>
-    <row r="40" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
-    </row>
-    <row r="41" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="39"/>
-    </row>
-    <row r="42" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39"/>
-    </row>
-    <row r="43" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39"/>
-    </row>
-    <row r="44" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="39"/>
-    </row>
-    <row r="45" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
-    </row>
-    <row r="46" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="39"/>
-    </row>
-    <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-    </row>
-    <row r="48" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="42"/>
-    </row>
-    <row r="49" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B49" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="22"/>
-    </row>
-    <row r="51" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="22"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="B35:E48"/>
-    <mergeCell ref="F35:I48"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
+  <mergeCells count="17">
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="B38:E51"/>
+    <mergeCell ref="F38:I51"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B6:I23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/시스템 기획서/DC_회피_강일구.xlsx
+++ b/Document/시스템 기획서/DC_회피_강일구.xlsx
@@ -1096,6 +1096,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,21 +1124,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2083,7 +2083,7 @@
   <dimension ref="B2:E36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2334,65 +2334,65 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
@@ -2404,18 +2404,18 @@
       <c r="B19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
       <c r="K19" s="4" t="s">
         <v>53</v>
       </c>
@@ -2424,90 +2424,90 @@
       <c r="B20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="15"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="15"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
       <c r="K22" s="15"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
       <c r="K24" s="15"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
@@ -2720,196 +2720,196 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
@@ -2918,13 +2918,13 @@
       <c r="C71" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
       <c r="I71" s="4" t="s">
         <v>94</v>
       </c>
@@ -2936,13 +2936,13 @@
       <c r="C72" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="37"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="30"/>
       <c r="I72" s="19"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
@@ -2952,13 +2952,13 @@
       <c r="C73" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="37"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="30"/>
       <c r="I73" s="19"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
@@ -2968,13 +2968,13 @@
       <c r="C74" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="37"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="30"/>
       <c r="I74" s="19"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
@@ -3024,18 +3024,18 @@
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B100" s="33" t="s">
+      <c r="B100" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33" t="s">
+      <c r="C100" s="31"/>
+      <c r="D100" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
       <c r="J100" s="21" t="s">
         <v>113</v>
       </c>
@@ -3044,90 +3044,90 @@
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="34"/>
-      <c r="D101" s="35" t="s">
+      <c r="C101" s="32"/>
+      <c r="D101" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="37"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="30"/>
       <c r="J101" s="22" t="s">
         <v>142</v>
       </c>
       <c r="K101" s="22"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C102" s="34"/>
-      <c r="D102" s="35" t="s">
+      <c r="C102" s="32"/>
+      <c r="D102" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="37"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="30"/>
       <c r="J102" s="22" t="s">
         <v>141</v>
       </c>
       <c r="K102" s="22"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="35" t="s">
+      <c r="C103" s="32"/>
+      <c r="D103" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="37"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="30"/>
       <c r="J103" s="22" t="s">
         <v>143</v>
       </c>
       <c r="K103" s="22"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C104" s="34"/>
-      <c r="D104" s="35" t="s">
+      <c r="C104" s="32"/>
+      <c r="D104" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="37"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="30"/>
       <c r="J104" s="22" t="s">
         <v>144</v>
       </c>
       <c r="K104" s="22"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C105" s="34"/>
-      <c r="D105" s="35" t="s">
+      <c r="C105" s="32"/>
+      <c r="D105" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="37"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="30"/>
       <c r="J105" s="22" t="s">
         <v>145</v>
       </c>
@@ -3155,6 +3155,32 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
     <mergeCell ref="D105:I105"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="B101:C101"/>
@@ -3167,32 +3193,6 @@
     <mergeCell ref="D102:I102"/>
     <mergeCell ref="D103:I103"/>
     <mergeCell ref="D104:I104"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3858,196 +3858,196 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
@@ -4056,13 +4056,13 @@
       <c r="C24" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="24" t="s">
         <v>94</v>
       </c>
@@ -4074,13 +4074,13 @@
       <c r="C25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -4090,13 +4090,13 @@
       <c r="C26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="19"/>
     </row>
     <row r="27" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -4106,13 +4106,13 @@
       <c r="C27" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="19"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
@@ -4131,30 +4131,30 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="35">
+      <c r="B37" s="28">
         <v>1</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="35">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="28">
         <v>2</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="43"/>
@@ -4300,18 +4300,18 @@
       <c r="B52" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33" t="s">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
       <c r="K52" s="21" t="s">
         <v>53</v>
       </c>
@@ -4320,32 +4320,38 @@
       <c r="B53" s="22">
         <v>1</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="30"/>
       <c r="K53" s="22"/>
     </row>
     <row r="54" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" s="22">
         <v>2</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="30"/>
       <c r="K54" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I23"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="F52:J52"/>
     <mergeCell ref="F53:J53"/>
@@ -4357,12 +4363,6 @@
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/시스템 기획서/DC_회피_강일구.xlsx
+++ b/Document/시스템 기획서/DC_회피_강일구.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\MC\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FF5037-53E5-4523-BDAD-95A940B79796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성 개요" sheetId="1" r:id="rId1"/>
@@ -684,7 +685,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1034,6 +1035,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,12 +1116,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,84 +1154,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1189,7 +1190,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1233,7 +1240,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1277,7 +1290,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1321,7 +1340,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1365,7 +1390,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1414,7 +1445,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1458,7 +1495,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1502,7 +1545,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1546,7 +1595,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1590,7 +1645,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="그림 14"/>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1634,7 +1695,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1678,7 +1745,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1722,7 +1795,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1771,7 +1850,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2065,10 +2150,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2080,168 +2165,168 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="52"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="48"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="48"/>
+      <c r="B16" s="26"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="33"/>
+      <c r="B23" s="16"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="33"/>
+      <c r="B30" s="16"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="16" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2253,11 +2338,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2271,280 +2356,280 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="18" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="38" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="38" t="s">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39" t="s">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="52"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="52"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="52"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="52"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="52"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="7"/>
@@ -2557,7 +2642,7 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="7"/>
@@ -2570,7 +2655,7 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="7"/>
@@ -2583,7 +2668,7 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="7"/>
@@ -2596,7 +2681,7 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="7"/>
@@ -2609,7 +2694,7 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="7"/>
@@ -2630,7 +2715,7 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="24" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="7"/>
@@ -2643,7 +2728,7 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="7"/>
@@ -2656,7 +2741,7 @@
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="7"/>
@@ -2669,7 +2754,7 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C39" s="7"/>
@@ -2682,7 +2767,7 @@
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="7"/>
@@ -2695,50 +2780,50 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="24" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="34"/>
+      <c r="B50" s="17"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="26" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2746,543 +2831,543 @@
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="38" t="s">
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="52">
+      <c r="B75" s="29">
         <v>1</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="40" t="s">
+      <c r="D75" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="54"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="31"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="52">
+      <c r="B76" s="29">
         <v>2</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="D76" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="54"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="31"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="52">
+      <c r="B77" s="29">
         <v>3</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="40" t="s">
+      <c r="D77" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="54"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="31"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B80" s="48" t="s">
+      <c r="B80" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B96" s="33" t="s">
+      <c r="B96" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33" t="s">
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33" t="s">
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J96" s="33"/>
-      <c r="K96" s="33"/>
-      <c r="L96" s="33" t="s">
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="48"/>
-      <c r="J101" s="48"/>
-      <c r="K101" s="48"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="48"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="48"/>
-      <c r="J102" s="48"/>
-      <c r="K102" s="48"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B103" s="49" t="s">
+      <c r="B103" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49" t="s">
+      <c r="C103" s="33"/>
+      <c r="D103" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="49"/>
-      <c r="H103" s="49"/>
-      <c r="I103" s="49"/>
-      <c r="J103" s="38" t="s">
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="K103" s="38" t="s">
+      <c r="K103" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="39" t="s">
+      <c r="B104" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C104" s="39"/>
-      <c r="D104" s="40" t="s">
+      <c r="C104" s="37"/>
+      <c r="D104" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="52" t="s">
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="K104" s="52"/>
+      <c r="K104" s="29"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="39" t="s">
+      <c r="B105" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C105" s="39"/>
-      <c r="D105" s="40" t="s">
+      <c r="C105" s="37"/>
+      <c r="D105" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="52" t="s">
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="K105" s="52"/>
+      <c r="K105" s="29"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="39" t="s">
+      <c r="B106" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="39"/>
-      <c r="D106" s="40" t="s">
+      <c r="C106" s="37"/>
+      <c r="D106" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="52" t="s">
+      <c r="E106" s="35"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="K106" s="52"/>
+      <c r="K106" s="29"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C107" s="39"/>
-      <c r="D107" s="40" t="s">
+      <c r="C107" s="37"/>
+      <c r="D107" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="52" t="s">
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="K107" s="52"/>
+      <c r="K107" s="29"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B108" s="39" t="s">
+      <c r="B108" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C108" s="39"/>
-      <c r="D108" s="40" t="s">
+      <c r="C108" s="37"/>
+      <c r="D108" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="52" t="s">
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="K108" s="52"/>
+      <c r="K108" s="29"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="48"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="48"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B110" s="48" t="s">
+      <c r="B110" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C110" s="48"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="48"/>
-      <c r="K110" s="48"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="48" t="s">
+      <c r="B111" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="48"/>
-      <c r="J111" s="48"/>
-      <c r="K111" s="48"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="48" t="s">
+      <c r="B112" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="48"/>
-      <c r="J112" s="48"/>
-      <c r="K112" s="48"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
@@ -3291,32 +3376,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B56:I73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D75:H75"/>
     <mergeCell ref="D108:I108"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B104:C104"/>
@@ -3329,6 +3388,32 @@
     <mergeCell ref="D105:I105"/>
     <mergeCell ref="D106:I106"/>
     <mergeCell ref="D107:I107"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:I73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3338,10 +3423,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:O88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -3351,115 +3436,115 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="33"/>
+      <c r="B34" s="16"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="48"/>
+      <c r="B35" s="26"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="48"/>
+      <c r="B36" s="26"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37" t="s">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="38" t="s">
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40" t="s">
+      <c r="C38" s="37"/>
+      <c r="D38" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40" t="s">
+      <c r="C39" s="37"/>
+      <c r="D39" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40" t="s">
+      <c r="C40" s="37"/>
+      <c r="D40" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="51"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="28"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="51"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="28"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="48"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
@@ -3881,32 +3966,32 @@
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="26" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B80" s="48" t="s">
+      <c r="B80" s="26" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="26" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3934,10 +4019,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -3961,196 +4046,196 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
     </row>
     <row r="17" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
     </row>
     <row r="18" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
@@ -4159,13 +4244,13 @@
       <c r="C24" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="12" t="s">
         <v>87</v>
       </c>
@@ -4177,13 +4262,13 @@
       <c r="C25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -4193,13 +4278,13 @@
       <c r="C26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -4209,40 +4294,40 @@
       <c r="C27" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="9"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="48"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="26" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="26" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="26" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="26" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4252,185 +4337,185 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
     </row>
     <row r="39" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="16">
+      <c r="B39" s="40">
         <v>1</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="16">
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="40">
         <v>2</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="42"/>
     </row>
     <row r="40" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="49"/>
     </row>
     <row r="41" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="52"/>
     </row>
     <row r="42" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="52"/>
     </row>
     <row r="43" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="52"/>
     </row>
     <row r="44" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="52"/>
     </row>
     <row r="45" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="52"/>
     </row>
     <row r="46" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="26"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="52"/>
     </row>
     <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="26"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="52"/>
     </row>
     <row r="48" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="26"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="52"/>
     </row>
     <row r="49" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="52"/>
     </row>
     <row r="50" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="26"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="52"/>
     </row>
     <row r="51" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="26"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="52"/>
     </row>
     <row r="52" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="26"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52"/>
     </row>
     <row r="53" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="27"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="29"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="55"/>
     </row>
     <row r="54" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="30" t="s">
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="G54" s="31"/>
-      <c r="H54" s="32"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="46"/>
       <c r="I54" s="14" t="s">
         <v>47</v>
       </c>
@@ -4439,53 +4524,53 @@
       <c r="B55" s="11">
         <v>1</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="16" t="s">
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B56" s="11">
         <v>2</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="16" t="s">
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
       <c r="I56" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B40:E53"/>
+    <mergeCell ref="F40:I53"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="D25:H25"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I23"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B40:E53"/>
-    <mergeCell ref="F40:I53"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
